--- a/gantt_DM1.xlsx
+++ b/gantt_DM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5915F3-35C2-4DCC-BD8B-FBFBF0035406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A082E-62D1-4951-B4D0-2D634998E8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{79AA89F1-0DF0-4CB9-BB79-4A80E9DA3B64}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{79AA89F1-0DF0-4CB9-BB79-4A80E9DA3B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Tâche</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Plannification, compréhension du domaine</t>
+  </si>
+  <si>
+    <t>10 oct '22</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +144,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,77 +206,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -580,57 +542,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D5EFAC-E493-415D-A12D-C408EC33F96D}">
-  <dimension ref="B1:AG5"/>
+  <dimension ref="B1:AN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="3" customWidth="1"/>
+    <col min="6" max="40" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="F1" s="15" t="s">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -643,213 +614,266 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="13" t="s">
+      <c r="U2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="AH2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>44831</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>44845</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="7"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2">
+        <v>44829</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44845</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="9"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2">
+        <v>44829</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44845</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="12"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="T1:Z1"/>
     <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantt_DM1.xlsx
+++ b/gantt_DM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A082E-62D1-4951-B4D0-2D634998E8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1F7655-D938-41DA-8C47-CDC72DC10CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{79AA89F1-0DF0-4CB9-BB79-4A80E9DA3B64}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="B1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>44831</v>
       </c>
       <c r="D3" s="2">
-        <v>44845</v>
+        <v>44844</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -777,7 +777,7 @@
         <v>44829</v>
       </c>
       <c r="D4" s="2">
-        <v>44845</v>
+        <v>44844</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -826,7 +826,7 @@
         <v>44829</v>
       </c>
       <c r="D5" s="2">
-        <v>44845</v>
+        <v>44844</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
